--- a/data/salmon data/data for analysis/Copper_Chinook_final.xlsx
+++ b/data/salmon data/data for analysis/Copper_Chinook_final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="3720" windowWidth="25040" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1090,6 +1090,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,17 +1127,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_Pink_hat" xfId="8"/>
@@ -1468,7 +1476,7 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2433,14 +2441,14 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>-1</v>
       </c>
       <c r="N9">
         <v>532044543</v>
@@ -2546,22 +2554,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>-0.94736841999999999</v>
       </c>
       <c r="N10">
         <v>517869725</v>
@@ -2670,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>-0.89473683999999998</v>
       </c>
       <c r="N11">
         <v>617247527</v>
@@ -2790,22 +2798,22 @@
         <v>-0.94736841999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
+        <v>-0.89473683999999998</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-0.84210525999999997</v>
       </c>
       <c r="N12">
         <v>605425238</v>
@@ -2919,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>-0.94736841999999999</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>-1</v>
+        <v>-0.84210525999999997</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>-0.78947367999999996</v>
       </c>
       <c r="N13">
         <v>495701890</v>
@@ -3042,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="8">
-        <v>-0.89473683999999998</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>-0.94736841999999999</v>
+        <v>-0.78947367999999996</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>-0.73684210999999999</v>
       </c>
       <c r="N14">
         <v>567320525</v>
@@ -3165,16 +3173,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="8">
-        <v>-0.84210525999999997</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>-0.89473683999999998</v>
+        <v>-0.73684210999999999</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>-0.68421052999999998</v>
       </c>
       <c r="N15">
         <v>489220608</v>
@@ -3288,16 +3296,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="8">
-        <v>-0.78947367999999996</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>-0.84210525999999997</v>
+        <v>-0.68421052999999998</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>-0.63157894999999997</v>
       </c>
       <c r="N16">
         <v>613158229</v>
@@ -3411,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="J17" s="8">
-        <v>-0.73684210999999999</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>-0.78947367999999996</v>
+        <v>-0.63157894999999997</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>-0.57894736999999996</v>
       </c>
       <c r="N17">
         <v>641675427</v>
@@ -3534,16 +3542,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="8">
-        <v>-0.68421052999999998</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>-0.73684210999999999</v>
+        <v>-0.57894736999999996</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>-0.52631578999999995</v>
       </c>
       <c r="N18">
         <v>483704011</v>
@@ -3657,16 +3665,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <v>-0.63157894999999997</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>-0.68421052999999998</v>
+        <v>-0.52631578999999995</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>-0.47368420999999999</v>
       </c>
       <c r="N19">
         <v>542383070</v>
@@ -3781,16 +3789,16 @@
         <v>1</v>
       </c>
       <c r="J20" s="8">
-        <v>-0.57894736999999996</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>-0.63157894999999997</v>
+        <v>-0.47368420999999999</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-0.42105262999999998</v>
       </c>
       <c r="N20">
         <v>602128903</v>
@@ -3904,16 +3912,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="8">
-        <v>-0.52631578999999995</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>-0.57894736999999996</v>
+        <v>-0.42105262999999998</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-0.36842105000000003</v>
       </c>
       <c r="N21">
         <v>586607038</v>
@@ -4027,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="8">
-        <v>-0.47368420999999999</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <v>-0.52631578999999995</v>
+        <v>-0.36842105000000003</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>-0.31578947000000002</v>
       </c>
       <c r="N22">
         <v>621062096</v>
@@ -4150,16 +4158,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>-0.42105262999999998</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>-0.47368420999999999</v>
+        <v>-0.31578947000000002</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>-0.26315789000000001</v>
       </c>
       <c r="N23">
         <v>603754659</v>
@@ -4273,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="8">
-        <v>-0.36842105000000003</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <v>-0.42105262999999998</v>
+        <v>-0.26315789000000001</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>-0.21052631999999999</v>
       </c>
       <c r="N24">
         <v>607943252</v>
@@ -4396,16 +4404,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="8">
-        <v>-0.31578947000000002</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>-0.36842105000000003</v>
+        <v>-0.21052631999999999</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>-0.15789474000000001</v>
       </c>
       <c r="N25">
         <v>638846859</v>
@@ -4519,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="8">
-        <v>-0.26315789000000001</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
@@ -4527,8 +4535,8 @@
       <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="M26" s="6">
-        <v>-0.31578947000000002</v>
+      <c r="M26" s="8">
+        <v>-0.10526315</v>
       </c>
       <c r="N26">
         <v>564053077</v>
@@ -4642,16 +4650,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <v>-0.21052631999999999</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <v>-0.26315789000000001</v>
+        <v>-0.10526315</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>-5.2631560000000001E-2</v>
       </c>
       <c r="N27">
         <v>599490314</v>

--- a/data/salmon data/data for analysis/Copper_Chinook_final.xlsx
+++ b/data/salmon data/data for analysis/Copper_Chinook_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>Escapement</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>juv.wildPinkRun.lag1</t>
+  </si>
+  <si>
+    <t>discharge.lag0</t>
+  </si>
+  <si>
+    <t>discharge.lag1</t>
   </si>
 </sst>
 </file>
@@ -1063,12 +1069,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1099,7 +1111,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,6 +1138,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1473,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1485,7 +1498,7 @@
     <col min="4" max="4" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1585,26 +1598,32 @@
       <c r="AG1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42">
       <c r="A2" s="1">
         <v>1980</v>
       </c>
@@ -1693,29 +1712,35 @@
         <v>664097.9444444445</v>
       </c>
       <c r="AG2" s="9"/>
-      <c r="AH2">
+      <c r="AH2" s="22">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AI2" s="22">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AJ2">
         <v>9.9258332649866698</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>11.3499999841054</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AL2" s="2">
         <v>-6.3333333329999997</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>-4.083333333333333</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>-7.25</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AO2" s="8">
         <v>11.66666667</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>-17.916666666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:42">
       <c r="A3" s="1">
         <v>1981</v>
       </c>
@@ -1804,29 +1829,35 @@
         <v>385054.20634920633</v>
       </c>
       <c r="AG3" s="9"/>
-      <c r="AH3">
+      <c r="AH3" s="2">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AJ3">
         <v>11.3499999841054</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>9.6133333444595301</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="2">
         <v>-4.0833333329999997</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>-2.1666666666666665</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AO3" s="8">
         <v>-18.5</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>-50.833333333333336</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:42">
       <c r="A4" s="1">
         <v>1982</v>
       </c>
@@ -1920,29 +1951,35 @@
       <c r="AG4" s="12">
         <v>310761</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="2">
+        <v>220808.3033</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AJ4">
         <v>9.6133333444595301</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>11.1833333969116</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AL4" s="2">
         <v>-2.1666666669999999</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>-0.83333333333333337</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AO4" s="8">
         <v>-13</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42">
       <c r="A5" s="1">
         <v>1983</v>
       </c>
@@ -2033,29 +2070,35 @@
       <c r="AG5" s="12">
         <v>354604</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="2">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>220808.3033</v>
+      </c>
+      <c r="AJ5">
         <v>11.1833333969116</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>11.125000039736401</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AL5" s="2">
         <v>-0.83333333300000001</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>-6.75</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>5</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AO5" s="8">
         <v>10.16666667</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>28.583333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42">
       <c r="A6" s="1">
         <v>1984</v>
       </c>
@@ -2149,29 +2192,35 @@
       <c r="AG6" s="12">
         <v>508173</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="2">
+        <v>252524.6678</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AJ6">
         <v>11.125000039736401</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>9.3750000397364293</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="2">
         <v>-6.75</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>28.583333333333332</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AO6" s="8">
         <v>-8.8333333330000006</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>-5.25</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="A7" s="1">
         <v>1985</v>
       </c>
@@ -2268,29 +2317,35 @@
       <c r="AG7" s="12">
         <v>296018</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="2">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>252524.6678</v>
+      </c>
+      <c r="AJ7">
         <v>9.3750000397364293</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>9.8533333539962804</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AL7" s="2">
         <v>0.16666666699999999</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>-1.8333333333333333</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>-5.25</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AO7" s="8">
         <v>9.6666666669999994</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8" s="1">
         <v>1986</v>
       </c>
@@ -2387,29 +2442,35 @@
       <c r="AG8" s="12">
         <v>439877</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="2">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AJ8">
         <v>9.8533333539962804</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>10.0149999459585</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AL8" s="2">
         <v>-1.8333333329999999</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>-9</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>5.916666666666667</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AO8" s="8">
         <v>8.1666666669999994</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>23.416666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="A9" s="1">
         <v>1987</v>
       </c>
@@ -2508,29 +2569,35 @@
       <c r="AG9" s="12">
         <v>693050</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="2">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AJ9">
         <v>10.0149999459585</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>10.296666622161901</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AL9" s="2">
         <v>-9</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>-6.666666666666667</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>23.416666666666668</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AO9" s="8">
         <v>14.5</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>16.416666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10" s="1">
         <v>1988</v>
       </c>
@@ -2629,29 +2696,35 @@
       <c r="AG10" s="12">
         <v>321770</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="2">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AJ10">
         <v>10.296666622161901</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>10.666666785876</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AL10" s="2">
         <v>-6.6666666670000003</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>16.416666666666668</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AO10" s="8">
         <v>0.33333333300000001</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="A11" s="1">
         <v>1989</v>
       </c>
@@ -2752,29 +2825,35 @@
       <c r="AG11" s="12">
         <v>139524</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="2">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AJ11">
         <v>10.666666785876</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>10.7158333857854</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AL11" s="2">
         <v>0.83333333300000001</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>1.1666666666666667</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>30.666666666666668</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AO11" s="8">
         <v>6</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>48.833333333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="A12" s="1">
         <v>1990</v>
       </c>
@@ -2875,29 +2954,35 @@
       <c r="AG12" s="12">
         <v>343498</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="2">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AJ12">
         <v>10.7158333857854</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>9.8316665887832606</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AL12" s="2">
         <v>1.1666666670000001</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>-6.333333333333333</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>48.833333333333336</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AO12" s="8">
         <v>-7.3333333329999997</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>19.583333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="A13" s="1">
         <v>1991</v>
       </c>
@@ -2998,29 +3083,35 @@
       <c r="AG13" s="12">
         <v>235820</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="2">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AJ13">
         <v>9.8316665887832606</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>10.0841666857402</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AL13" s="2">
         <v>-6.3333333329999997</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>-5.5</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>19.583333333333332</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AO13" s="8">
         <v>-9.1666666669999994</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>54.666666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14" s="1">
         <v>1992</v>
       </c>
@@ -3121,29 +3212,35 @@
       <c r="AG14" s="12">
         <v>289183</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="2">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AJ14">
         <v>10.0841666857402</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>11.068333387374899</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AL14" s="2">
         <v>-5.5</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>1.8333333333333333</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>54.666666666666664</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AO14" s="8">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>23.25</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="A15" s="1">
         <v>1993</v>
       </c>
@@ -3244,29 +3341,35 @@
       <c r="AG15" s="12">
         <v>449442</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="2">
+        <v>292579.9914</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AJ15">
         <v>11.068333387374899</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>10.770000060399401</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AL15" s="2">
         <v>1.8333333329999999</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>-2.5833333333333335</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>23.25</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AO15" s="8">
         <v>-22.833333329999999</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>18.25</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16" s="1">
         <v>1994</v>
       </c>
@@ -3367,29 +3470,35 @@
       <c r="AG16" s="12">
         <v>336190</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="2">
+        <v>299951.5405</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>292579.9914</v>
+      </c>
+      <c r="AJ16">
         <v>10.770000060399401</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>9.9800000190734899</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AL16" s="2">
         <v>-2.5833333330000001</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>-3.75</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>18.25</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AO16" s="8">
         <v>-5.8333333329999997</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:42">
       <c r="A17" s="1">
         <v>1995</v>
       </c>
@@ -3490,29 +3599,35 @@
       <c r="AG17" s="12">
         <v>327209</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="2">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>299951.5405</v>
+      </c>
+      <c r="AJ17">
         <v>9.9800000190734899</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>10.424166599909499</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AL17" s="2">
         <v>-3.75</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>-5.333333333333333</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>-1</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AO17" s="8">
         <v>6.6666666670000003</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:42">
       <c r="A18" s="1">
         <v>1996</v>
       </c>
@@ -3613,29 +3728,35 @@
       <c r="AG18" s="12">
         <v>726883</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="2">
+        <v>252000.3579</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AJ18">
         <v>10.424166599909499</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>11.552500009536701</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AL18" s="2">
         <v>-5.3333333329999997</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>-1.1666666666666667</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>2.6666666666666665</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AO18" s="8">
         <v>-18.166666670000001</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:42">
       <c r="A19" s="1">
         <v>1997</v>
       </c>
@@ -3737,29 +3858,35 @@
       <c r="AG19" s="12">
         <v>577028</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="2">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>252000.3579</v>
+      </c>
+      <c r="AJ19">
         <v>11.552500009536701</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>10.3966666857402</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AL19" s="2">
         <v>-1.1666666670000001</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>3.75</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>7.416666666666667</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AO19" s="8">
         <v>-14.5</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>-12.416666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:42">
       <c r="A20" s="1">
         <v>1998</v>
       </c>
@@ -3860,29 +3987,35 @@
       <c r="AG20" s="12">
         <v>238272</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="2">
+        <v>298739.391</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AJ20">
         <v>10.3966666857402</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>9.5624999602635707</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AL20" s="2">
         <v>3.75</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>-2.3333333333333335</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>-12.416666666666666</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AO20" s="8">
         <v>-13.83333333</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>33.833333333333336</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:42">
       <c r="A21" s="1">
         <v>1999</v>
       </c>
@@ -3983,29 +4116,35 @@
       <c r="AG21" s="12">
         <v>73396</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="2">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>298739.391</v>
+      </c>
+      <c r="AJ21">
         <v>9.5624999602635707</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>10.422499855359399</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AL21" s="2">
         <v>-2.3333333330000001</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>-5.5</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>33.833333333333336</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AO21" s="8">
         <v>-19.833333329999999</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <v>31.416666666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:42">
       <c r="A22" s="1">
         <v>2000</v>
       </c>
@@ -4106,29 +4245,35 @@
       <c r="AG22" s="12">
         <v>138982</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="2">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AJ22">
         <v>10.422499855359399</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>10.411666433016499</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AL22" s="2">
         <v>-5.5</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <v>-2.3333333333333335</v>
       </c>
-      <c r="AL22">
+      <c r="AN22">
         <v>31.416666666666668</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AO22" s="8">
         <v>-4.1666666670000003</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <v>34.083333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:42">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
@@ -4229,29 +4374,35 @@
       <c r="AG23" s="12">
         <v>198466</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="2">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AJ23">
         <v>10.411666433016499</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>10.4150000413259</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AL23" s="2">
         <v>-2.3333333330000001</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>2.4166666666666665</v>
-      </c>
-      <c r="AL23">
-        <v>34.083333333333336</v>
-      </c>
-      <c r="AM23" s="8">
-        <v>6.8333333329999997</v>
       </c>
       <c r="AN23">
         <v>34.083333333333336</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AO23" s="8">
+        <v>6.8333333329999997</v>
+      </c>
+      <c r="AP23">
+        <v>34.083333333333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -4352,29 +4503,35 @@
       <c r="AG24" s="12">
         <v>348129</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="2">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AJ24">
         <v>10.4150000413259</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>11.081666628519701</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AL24" s="2">
         <v>2.4166666669999999</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>-4.833333333333333</v>
       </c>
-      <c r="AL24">
+      <c r="AN24">
         <v>34.083333333333336</v>
       </c>
-      <c r="AM24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN24">
+      <c r="AO24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP24">
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:42">
       <c r="A25" s="1">
         <v>2003</v>
       </c>
@@ -4475,29 +4632,35 @@
       <c r="AG25" s="12">
         <v>293340</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="2">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AJ25">
         <v>11.081666628519701</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>11.4116667509079</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AL25" s="2">
         <v>-4.8333333329999997</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>-3.25</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>20.166666666666668</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AO25" s="8">
         <v>-7.5</v>
       </c>
-      <c r="AN25">
+      <c r="AP25">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:42">
       <c r="A26" s="1">
         <v>2004</v>
       </c>
@@ -4598,29 +4761,35 @@
       <c r="AG26" s="12">
         <v>588227</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="2">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AJ26">
         <v>11.4116667509079</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>11.960000117619799</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AL26" s="2">
         <v>-3.25</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>-7.25</v>
       </c>
-      <c r="AL26">
+      <c r="AN26">
         <v>27</v>
       </c>
-      <c r="AM26" s="8">
+      <c r="AO26" s="8">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AN26">
+      <c r="AP26">
         <v>-23.916666666666668</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:42">
       <c r="A27" s="1">
         <v>2005</v>
       </c>
@@ -4721,29 +4890,35 @@
       <c r="AG27" s="12">
         <v>435769</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="2">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AJ27">
         <v>11.960000117619799</v>
       </c>
-      <c r="AI27">
+      <c r="AK27">
         <v>10.364999930063901</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AL27" s="2">
         <v>-7.25</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <v>-2.75</v>
       </c>
-      <c r="AL27">
+      <c r="AN27">
         <v>-23.916666666666668</v>
       </c>
-      <c r="AM27" s="8">
+      <c r="AO27" s="8">
         <v>-21.166666670000001</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <v>-39.416666666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:42">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -4765,10 +4940,10 @@
       <c r="AE28" s="11"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="12"/>
-      <c r="AJ28" s="2"/>
-      <c r="AM28" s="8"/>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AL28" s="2"/>
+      <c r="AO28" s="8"/>
+    </row>
+    <row r="29" spans="1:42">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -4790,10 +4965,10 @@
       <c r="AE29" s="11"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="12"/>
-      <c r="AJ29" s="2"/>
-      <c r="AM29" s="8"/>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AL29" s="2"/>
+      <c r="AO29" s="8"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -4817,10 +4992,10 @@
       <c r="AE30" s="8"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="12"/>
-      <c r="AJ30" s="2"/>
-      <c r="AM30" s="8"/>
-    </row>
-    <row r="31" spans="1:40">
+      <c r="AL30" s="2"/>
+      <c r="AO30" s="8"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -4844,10 +5019,10 @@
       <c r="AE31" s="8"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="12"/>
-      <c r="AJ31" s="2"/>
-      <c r="AM31" s="8"/>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AL31" s="2"/>
+      <c r="AO31" s="8"/>
+    </row>
+    <row r="32" spans="1:42">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -4869,10 +5044,10 @@
       <c r="AE32" s="8"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="12"/>
-      <c r="AJ32" s="2"/>
-      <c r="AM32" s="8"/>
-    </row>
-    <row r="33" spans="5:39">
+      <c r="AL32" s="2"/>
+      <c r="AO32" s="8"/>
+    </row>
+    <row r="33" spans="5:41">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -4897,10 +5072,10 @@
       <c r="AE33" s="8"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="12"/>
-      <c r="AJ33" s="2"/>
-      <c r="AM33" s="8"/>
-    </row>
-    <row r="34" spans="5:39">
+      <c r="AL33" s="2"/>
+      <c r="AO33" s="8"/>
+    </row>
+    <row r="34" spans="5:41">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -4925,11 +5100,11 @@
       <c r="AE34" s="8"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="12"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="8"/>
+      <c r="AL34" s="2"/>
       <c r="AM34" s="8"/>
-    </row>
-    <row r="35" spans="5:39">
+      <c r="AO34" s="8"/>
+    </row>
+    <row r="35" spans="5:41">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4954,12 +5129,12 @@
       <c r="AE35" s="8"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="12"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
       <c r="AM35" s="8"/>
-    </row>
-    <row r="36" spans="5:39">
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+    </row>
+    <row r="36" spans="5:41">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4984,12 +5159,14 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="12"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
       <c r="AL36" s="8"/>
       <c r="AM36" s="8"/>
-    </row>
-    <row r="37" spans="5:39">
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+    </row>
+    <row r="37" spans="5:41">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -5016,12 +5193,12 @@
       <c r="AB37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
-    </row>
-    <row r="38" spans="5:39">
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+    </row>
+    <row r="38" spans="5:41">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -5036,12 +5213,12 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
       <c r="AM38" s="8"/>
-    </row>
-    <row r="39" spans="5:39">
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+    </row>
+    <row r="39" spans="5:41">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -5056,12 +5233,12 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
-    </row>
-    <row r="40" spans="5:39">
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+    </row>
+    <row r="40" spans="5:41">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -5076,12 +5253,12 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
-    </row>
-    <row r="41" spans="5:39">
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+    </row>
+    <row r="41" spans="5:41">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -5096,12 +5273,12 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
-    </row>
-    <row r="42" spans="5:39">
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+    </row>
+    <row r="42" spans="5:41">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5116,12 +5293,12 @@
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
       <c r="AM42" s="8"/>
-    </row>
-    <row r="43" spans="5:39">
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+    </row>
+    <row r="43" spans="5:41">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -5136,12 +5313,12 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
       <c r="AM43" s="8"/>
-    </row>
-    <row r="44" spans="5:39">
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+    </row>
+    <row r="44" spans="5:41">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5156,12 +5333,12 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
-    </row>
-    <row r="45" spans="5:39">
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+    </row>
+    <row r="45" spans="5:41">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -5176,12 +5353,12 @@
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
-    </row>
-    <row r="46" spans="5:39">
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+    </row>
+    <row r="46" spans="5:41">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -5196,12 +5373,12 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
-      <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="4"/>
+      <c r="AL46" s="8"/>
       <c r="AM46" s="8"/>
-    </row>
-    <row r="47" spans="5:39">
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="8"/>
+    </row>
+    <row r="47" spans="5:41">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -5217,12 +5394,12 @@
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="AC47" s="2"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="4"/>
+      <c r="AL47" s="8"/>
       <c r="AM47" s="8"/>
-    </row>
-    <row r="48" spans="5:39">
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="8"/>
+    </row>
+    <row r="48" spans="5:41">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -5244,10 +5421,10 @@
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="AC48" s="2"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="4"/>
+      <c r="AL48" s="8"/>
       <c r="AM48" s="8"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="8"/>
     </row>
     <row r="49" spans="5:29">
       <c r="E49" s="8"/>
